--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.98023</v>
+        <v>1.07776</v>
       </c>
       <c r="H2">
-        <v>8.94069</v>
+        <v>3.23328</v>
       </c>
       <c r="I2">
-        <v>0.2389353094626875</v>
+        <v>0.1008030812580806</v>
       </c>
       <c r="J2">
-        <v>0.2389353094626874</v>
+        <v>0.1008030812580806</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.235110666666667</v>
+        <v>3.003729333333334</v>
       </c>
       <c r="N2">
-        <v>9.705332</v>
+        <v>9.011188000000001</v>
       </c>
       <c r="O2">
-        <v>0.3126564779255809</v>
+        <v>0.2892047983951475</v>
       </c>
       <c r="P2">
-        <v>0.3126564779255809</v>
+        <v>0.2892047983951475</v>
       </c>
       <c r="Q2">
-        <v>9.641373862120002</v>
+        <v>3.237299326293334</v>
       </c>
       <c r="R2">
-        <v>86.77236475908001</v>
+        <v>29.13569393664</v>
       </c>
       <c r="S2">
-        <v>0.07470467230866258</v>
+        <v>0.02915273479285287</v>
       </c>
       <c r="T2">
-        <v>0.07470467230866257</v>
+        <v>0.02915273479285288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.98023</v>
+        <v>1.07776</v>
       </c>
       <c r="H3">
-        <v>8.94069</v>
+        <v>3.23328</v>
       </c>
       <c r="I3">
-        <v>0.2389353094626875</v>
+        <v>0.1008030812580806</v>
       </c>
       <c r="J3">
-        <v>0.2389353094626874</v>
+        <v>0.1008030812580806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.445026</v>
       </c>
       <c r="O3">
-        <v>0.4331304147841476</v>
+        <v>0.43150426267297</v>
       </c>
       <c r="P3">
-        <v>0.4331304147841477</v>
+        <v>0.43150426267297</v>
       </c>
       <c r="Q3">
-        <v>13.35642327866</v>
+        <v>4.830170407253334</v>
       </c>
       <c r="R3">
-        <v>120.20780950794</v>
+        <v>43.47153366528001</v>
       </c>
       <c r="S3">
-        <v>0.1034901496941525</v>
+        <v>0.04349695925343156</v>
       </c>
       <c r="T3">
-        <v>0.1034901496941525</v>
+        <v>0.04349695925343157</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.98023</v>
+        <v>1.07776</v>
       </c>
       <c r="H4">
-        <v>8.94069</v>
+        <v>3.23328</v>
       </c>
       <c r="I4">
-        <v>0.2389353094626875</v>
+        <v>0.1008030812580806</v>
       </c>
       <c r="J4">
-        <v>0.2389353094626874</v>
+        <v>0.1008030812580806</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.630387</v>
+        <v>2.900762333333333</v>
       </c>
       <c r="N4">
-        <v>7.891161</v>
+        <v>8.702287</v>
       </c>
       <c r="O4">
-        <v>0.2542131072902715</v>
+        <v>0.2792909389318825</v>
       </c>
       <c r="P4">
-        <v>0.2542131072902715</v>
+        <v>0.2792909389318825</v>
       </c>
       <c r="Q4">
-        <v>7.839158249010001</v>
+        <v>3.126325612373333</v>
       </c>
       <c r="R4">
-        <v>70.55242424109001</v>
+        <v>28.13693051136</v>
       </c>
       <c r="S4">
-        <v>0.06074048745987238</v>
+        <v>0.02815338721179618</v>
       </c>
       <c r="T4">
-        <v>0.06074048745987237</v>
+        <v>0.02815338721179619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.747723000000001</v>
+        <v>5.747723</v>
       </c>
       <c r="H5">
         <v>17.243169</v>
       </c>
       <c r="I5">
-        <v>0.4608147605086877</v>
+        <v>0.5375855372420009</v>
       </c>
       <c r="J5">
-        <v>0.4608147605086877</v>
+        <v>0.5375855372420009</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.235110666666667</v>
+        <v>3.003729333333334</v>
       </c>
       <c r="N5">
-        <v>9.705332</v>
+        <v>9.011188000000001</v>
       </c>
       <c r="O5">
-        <v>0.3126564779255809</v>
+        <v>0.2892047983951475</v>
       </c>
       <c r="P5">
-        <v>0.3126564779255809</v>
+        <v>0.2892047983951475</v>
       </c>
       <c r="Q5">
-        <v>18.59451998634534</v>
+        <v>17.26460417497467</v>
       </c>
       <c r="R5">
-        <v>167.350679877108</v>
+        <v>155.381437574772</v>
       </c>
       <c r="S5">
-        <v>0.1440767199967664</v>
+        <v>0.1554723169182199</v>
       </c>
       <c r="T5">
-        <v>0.1440767199967664</v>
+        <v>0.1554723169182199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.747723000000001</v>
+        <v>5.747723</v>
       </c>
       <c r="H6">
         <v>17.243169</v>
       </c>
       <c r="I6">
-        <v>0.4608147605086877</v>
+        <v>0.5375855372420009</v>
       </c>
       <c r="J6">
-        <v>0.4608147605086877</v>
+        <v>0.5375855372420009</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.445026</v>
       </c>
       <c r="O6">
-        <v>0.4331304147841476</v>
+        <v>0.43150426267297</v>
       </c>
       <c r="P6">
-        <v>0.4331304147841477</v>
+        <v>0.43150426267297</v>
       </c>
       <c r="Q6">
         <v>25.75942839193267</v>
@@ -818,10 +818,10 @@
         <v>231.834855527394</v>
       </c>
       <c r="S6">
-        <v>0.1995928883577855</v>
+        <v>0.2319704508712621</v>
       </c>
       <c r="T6">
-        <v>0.1995928883577856</v>
+        <v>0.2319704508712621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.747723000000001</v>
+        <v>5.747723</v>
       </c>
       <c r="H7">
         <v>17.243169</v>
       </c>
       <c r="I7">
-        <v>0.4608147605086877</v>
+        <v>0.5375855372420009</v>
       </c>
       <c r="J7">
-        <v>0.4608147605086877</v>
+        <v>0.5375855372420009</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.630387</v>
+        <v>2.900762333333333</v>
       </c>
       <c r="N7">
-        <v>7.891161</v>
+        <v>8.702287</v>
       </c>
       <c r="O7">
-        <v>0.2542131072902715</v>
+        <v>0.2792909389318825</v>
       </c>
       <c r="P7">
-        <v>0.2542131072902715</v>
+        <v>0.2792909389318825</v>
       </c>
       <c r="Q7">
-        <v>15.118735858801</v>
+        <v>16.67277838083367</v>
       </c>
       <c r="R7">
-        <v>136.068622729209</v>
+        <v>150.055005427503</v>
       </c>
       <c r="S7">
-        <v>0.1171451521541358</v>
+        <v>0.1501427694525189</v>
       </c>
       <c r="T7">
-        <v>0.1171451521541358</v>
+        <v>0.1501427694525189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.745004666666667</v>
+        <v>3.866253666666667</v>
       </c>
       <c r="H8">
-        <v>11.235014</v>
+        <v>11.598761</v>
       </c>
       <c r="I8">
-        <v>0.3002499300286248</v>
+        <v>0.3616113814999184</v>
       </c>
       <c r="J8">
-        <v>0.3002499300286248</v>
+        <v>0.3616113814999185</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.235110666666667</v>
+        <v>3.003729333333334</v>
       </c>
       <c r="N8">
-        <v>9.705332</v>
+        <v>9.011188000000001</v>
       </c>
       <c r="O8">
-        <v>0.3126564779255809</v>
+        <v>0.2892047983951475</v>
       </c>
       <c r="P8">
-        <v>0.3126564779255809</v>
+        <v>0.2892047983951475</v>
       </c>
       <c r="Q8">
-        <v>12.11550454384978</v>
+        <v>11.61317954867422</v>
       </c>
       <c r="R8">
-        <v>109.039540894648</v>
+        <v>104.518615938068</v>
       </c>
       <c r="S8">
-        <v>0.09387508562015194</v>
+        <v>0.1045797466840747</v>
       </c>
       <c r="T8">
-        <v>0.09387508562015194</v>
+        <v>0.1045797466840747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.745004666666667</v>
+        <v>3.866253666666667</v>
       </c>
       <c r="H9">
-        <v>11.235014</v>
+        <v>11.598761</v>
       </c>
       <c r="I9">
-        <v>0.3002499300286248</v>
+        <v>0.3616113814999184</v>
       </c>
       <c r="J9">
-        <v>0.3002499300286248</v>
+        <v>0.3616113814999185</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.445026</v>
       </c>
       <c r="O9">
-        <v>0.4331304147841476</v>
+        <v>0.43150426267297</v>
       </c>
       <c r="P9">
-        <v>0.4331304147841477</v>
+        <v>0.43150426267297</v>
       </c>
       <c r="Q9">
-        <v>16.78389503781822</v>
+        <v>17.32729369030956</v>
       </c>
       <c r="R9">
-        <v>151.055055340364</v>
+        <v>155.945643212786</v>
       </c>
       <c r="S9">
-        <v>0.1300473767322096</v>
+        <v>0.1560368525482764</v>
       </c>
       <c r="T9">
-        <v>0.1300473767322096</v>
+        <v>0.1560368525482764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.745004666666667</v>
+        <v>3.866253666666667</v>
       </c>
       <c r="H10">
-        <v>11.235014</v>
+        <v>11.598761</v>
       </c>
       <c r="I10">
-        <v>0.3002499300286248</v>
+        <v>0.3616113814999184</v>
       </c>
       <c r="J10">
-        <v>0.3002499300286248</v>
+        <v>0.3616113814999185</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.630387</v>
+        <v>2.900762333333333</v>
       </c>
       <c r="N10">
-        <v>7.891161</v>
+        <v>8.702287</v>
       </c>
       <c r="O10">
-        <v>0.2542131072902715</v>
+        <v>0.2792909389318825</v>
       </c>
       <c r="P10">
-        <v>0.2542131072902715</v>
+        <v>0.2792909389318825</v>
       </c>
       <c r="Q10">
-        <v>9.850811590139333</v>
+        <v>11.21508300737855</v>
       </c>
       <c r="R10">
-        <v>88.65730431125399</v>
+        <v>100.935747066407</v>
       </c>
       <c r="S10">
-        <v>0.07632746767626331</v>
+        <v>0.1009947822675674</v>
       </c>
       <c r="T10">
-        <v>0.07632746767626331</v>
+        <v>0.1009947822675674</v>
       </c>
     </row>
   </sheetData>
